--- a/Comp230/sales_data.xlsx
+++ b/Comp230/sales_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" state="visible" r:id="rId2"/>
@@ -283,157 +283,157 @@
     <t xml:space="preserve">223</t>
   </si>
   <si>
+    <t xml:space="preserve">224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/04/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/04/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/04/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261</t>
+  </si>
+  <si>
     <t xml:space="preserve">21/04/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/04/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/04/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/04/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/04/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235</t>
+    <t xml:space="preserve">262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267</t>
   </si>
   <si>
     <t xml:space="preserve">23/04/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">236</t>
+    <t xml:space="preserve">268</t>
   </si>
   <si>
     <t xml:space="preserve">24/04/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">237</t>
+    <t xml:space="preserve">269</t>
   </si>
   <si>
     <t xml:space="preserve">25/04/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">269</t>
   </si>
   <si>
     <t xml:space="preserve">.</t>
@@ -556,7 +556,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2898,8 +2898,8 @@
   </sheetPr>
   <dimension ref="A1:C1031"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2937,7 +2937,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,10 +2945,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,10 +2956,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,10 +2967,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,7 +2978,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>83</v>
@@ -2989,10 +2989,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,10 +3000,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,10 +3011,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,10 +3022,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3033,10 +3033,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,10 +3044,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3055,10 +3055,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,10 +3066,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,10 +3077,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,10 +3088,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,10 +3099,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,10 +3110,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,10 +3121,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,10 +3132,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,10 +3143,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,10 +3154,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,10 +3165,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,10 +3176,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,10 +3187,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,10 +3198,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,10 +3209,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,10 +3220,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,10 +3242,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,10 +3253,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,10 +3264,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,10 +3275,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,10 +3286,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,10 +3297,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,10 +3308,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,10 +3319,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,10 +3330,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,10 +3341,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,10 +3352,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,10 +3363,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,10 +3374,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,10 +3385,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,10 +3396,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,10 +3407,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,10 +3418,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,7 +4431,7 @@
   <dimension ref="A1:C1019"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>69</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>72</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>75</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>55</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>59</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>66</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>69</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>62</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>69</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>72</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>75</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>69</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>62</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>69</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>72</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>75</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>62</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>69</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>72</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>66</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>55</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>66</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>59</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>72</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>75</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>69</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>72</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>66</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>55</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>66</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>59</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>72</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>75</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>69</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>72</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>66</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>55</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>66</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>59</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>72</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>75</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>69</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>72</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>66</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>55</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>66</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>59</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>72</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>75</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>69</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>72</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>66</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>55</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>66</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>59</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>62</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>55</v>

--- a/Comp230/sales_data.xlsx
+++ b/Comp230/sales_data.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Inv Line Items" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="Z_9470C7F5_6080_4CDC_8533_677DB9292658_.wvu.FilterData" vbProcedure="false">Invoices!$A$1:$Z$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="Z_9470C7F5_6080_4CDC_8533_677DB9292658_.wvu.FilterData" vbProcedure="false">Invoices!$B$1:$Y$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -265,13 +265,13 @@
     <t xml:space="preserve">20</t>
   </si>
   <si>
+    <t xml:space="preserve">Invoice_ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">Customer_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice_ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
   </si>
   <si>
     <t xml:space="preserve">222</t>
@@ -1755,7 +1755,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2899,12 +2899,13 @@
   <dimension ref="A1:C1031"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,512 +2921,512 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4430,7 +4431,7 @@
   </sheetPr>
   <dimension ref="A1:C1019"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Comp230/sales_data.xlsx
+++ b/Comp230/sales_data.xlsx
@@ -26,15 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
-  <si>
-    <t xml:space="preserve">Customer_ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last_Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last</t>
   </si>
   <si>
     <t xml:space="preserve">Marcela</t>
@@ -94,28 +94,22 @@
     <t xml:space="preserve">Winger</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice_ID </t>
+    <t xml:space="preserve">Invoice</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product_ID</t>
+    <t xml:space="preserve">Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product</t>
   </si>
   <si>
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">Product_ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product_Name</t>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Price </t>
@@ -347,7 +341,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,7 +534,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1175,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1191,738 +1185,937 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="2" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>222</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>222</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D3" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="C4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="D4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="D5" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="C7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="D7" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="C8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="D8" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="C9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="D9" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="C10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="D10" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>224</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="D12" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="C13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="D13" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="D15" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>227</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="D16" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="C17" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="D17" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="C18" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="C19" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="D19" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>229</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>5</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="D20" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="C21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="D21" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="C22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="D22" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="C23" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="C24" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="D24" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="C25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="D25" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="C26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="D26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="C27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="D27" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="C28" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="D28" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="C29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="D29" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="n">
         <v>236</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D30" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="n">
         <v>237</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>4</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="D31" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="C32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="D32" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="C33" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="D33" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="C34" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="D34" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="C35" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="C36" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="D36" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="C37" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="D37" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="n">
         <v>241</v>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="C39" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="D39" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="C40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="D40" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="C41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="D41" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="C42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="C43" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="D43" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="C44" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="D44" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="C45" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="D45" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="C46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="D46" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="C47" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="D47" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="C48" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="D48" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="C49" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="D49" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="C50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="D50" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="C51" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="D51" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="C52" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="D52" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="C53" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="D53" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="n">
         <v>255</v>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D54" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="n">
         <v>256</v>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>4</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="D55" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="C56" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="D56" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="C57" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="D57" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="C58" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="D58" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="C59" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="D59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="C60" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="D60" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="C61" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="D61" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="n">
         <v>263</v>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D62" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="C63" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="D63" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="C64" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="D64" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="C65" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="D65" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="C66" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="D66" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1945,7 +2138,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1955,16 +2148,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>5</v>
@@ -1986,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>15</v>
@@ -2000,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>35</v>
@@ -2014,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>20</v>
@@ -2028,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>5</v>
@@ -2042,7 +2235,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>25</v>
@@ -2056,7 +2249,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>50</v>
@@ -2070,7 +2263,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>5</v>

--- a/Comp230/sales_data.xlsx
+++ b/Comp230/sales_data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Customers" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Invoices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Inv Line Items" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Product" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="customers" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="invoices" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="invoice line items" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="product" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="Z_9470C7F5_6080_4CDC_8533_677DB9292658_.wvu.FilterData" vbProcedure="false">Invoices!$B$1:$X$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="Z_9470C7F5_6080_4CDC_8533_677DB9292658_.wvu.FilterData" vbProcedure="false">invoices!$B$1:$V$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t xml:space="preserve">Customer</t>
   </si>
@@ -107,6 +107,45 @@
   </si>
   <si>
     <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line total</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total of </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">all</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> invoices</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -146,12 +185,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
+    <numFmt numFmtId="167" formatCode="[$$-1009]#,##0.00;[RED]\-[$$-1009]#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -175,6 +215,31 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -224,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,6 +306,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,84 +327,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -338,7 +337,7 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -511,19 +510,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1022" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1020" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,280 +541,258 @@
         <v>222</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>43568</v>
+        <v>43556</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="D2" s="0"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>43568</v>
+        <v>43556</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="D3" s="0"/>
+        <v>133</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>43568</v>
+        <v>43557</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="D4" s="0"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>43568</v>
+        <v>43558</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>43568</v>
+        <v>43558</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="D6" s="0"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>43569</v>
+        <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="D7" s="0"/>
+        <v>133</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>43569</v>
+        <v>43560</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="D8" s="0"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>43569</v>
+        <v>43560</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="D9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>43569</v>
+        <v>43561</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="D10" s="0"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>43569</v>
+        <v>43562</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="D11" s="0"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>43569</v>
+        <v>43562</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="D12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>43569</v>
+        <v>43563</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="D13" s="0"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>43570</v>
+        <v>43564</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="D14" s="0"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>43570</v>
+        <v>43564</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="D15" s="0"/>
+        <v>127</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>43570</v>
+        <v>43564</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
+      <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>43570</v>
+        <v>43565</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>127</v>
       </c>
       <c r="D17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
+      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>43570</v>
+        <v>43566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
+      <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>43570</v>
+        <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
+      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>43570</v>
+        <v>43567</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
+      <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>43570</v>
+        <v>43567</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
+      <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>43570</v>
+        <v>43568</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
+      <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>43570</v>
+        <v>43569</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
+      <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -825,179 +802,166 @@
         <v>43570</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
+      <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>245</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>43576</v>
+        <v>43570</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
+      <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>246</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>43576</v>
+        <v>43571</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>134</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
+      <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>247</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>43576</v>
+        <v>43571</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>130</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
+      <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>248</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>43576</v>
+        <v>43572</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
+      <c r="E28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>249</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>43576</v>
+        <v>43573</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
+      <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>250</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>43576</v>
+        <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
+      <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>251</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>43578</v>
+        <v>43574</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>132</v>
       </c>
       <c r="D31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
+      <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>252</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>43578</v>
+        <v>43574</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
+      <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>253</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>43578</v>
+        <v>43575</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
+      <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>254</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>43578</v>
+        <v>43576</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
+      <c r="E34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>255</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>43578</v>
+        <v>43577</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
+      <c r="E35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>256</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>43579</v>
+        <v>43578</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
+      <c r="E36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -1007,137 +971,127 @@
         <v>43579</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
+      <c r="E37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>258</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
+      <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>259</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
+      <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>260</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>43579</v>
+        <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
+      <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>261</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>43579</v>
+        <v>43582</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
+      <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>262</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>43580</v>
+        <v>43582</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
+      <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>263</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>43581</v>
+        <v>43582</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
+      <c r="E43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>264</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>43582</v>
+        <v>43583</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>265</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>43583</v>
+        <v>43585</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
+      <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>266</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D46" s="0"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
+      <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -1147,19 +1101,18 @@
         <v>43585</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
+      <c r="E47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C47">
-    <cfRule type="cellIs" priority="2" operator="notBetween" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>123</formula>
-      <formula>134</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1175,23 +1128,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="2" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="7" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1203,9 +1157,12 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -1215,11 +1172,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <f aca="false">D2*VLOOKUP(C2, product!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -1229,11 +1190,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <f aca="false">D3*VLOOKUP(C3, product!$A$2:$C$9, 3)</f>
+        <v>180</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -1245,9 +1213,17 @@
       <c r="D4" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F4" s="4" t="n">
+        <f aca="false">D4*VLOOKUP(C4, product!$A$2:$C$9, 3)</f>
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <f aca="false">SUM(F2:F72)</f>
+        <v>15020</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -1257,11 +1233,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <f aca="false">D5*VLOOKUP(C5, product!$A$2:$C$9, 3)</f>
+        <v>240</v>
+      </c>
+      <c r="H5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -1271,11 +1252,15 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <f aca="false">D6*VLOOKUP(C6, product!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -1285,11 +1270,15 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <f aca="false">D7*VLOOKUP(C7, product!$A$2:$C$9, 3)</f>
+        <v>560</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -1299,11 +1288,15 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <f aca="false">D8*VLOOKUP(C8, product!$A$2:$C$9, 3)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -1313,11 +1306,15 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <f aca="false">D9*VLOOKUP(C9, product!$A$2:$C$9, 3)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
@@ -1327,11 +1324,15 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <f aca="false">D10*VLOOKUP(C10, product!$A$2:$C$9, 3)</f>
+        <v>700</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -1341,11 +1342,15 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <f aca="false">D11*VLOOKUP(C11, product!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
@@ -1355,11 +1360,15 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <f aca="false">D12*VLOOKUP(C12, product!$A$2:$C$9, 3)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
@@ -1369,11 +1378,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <f aca="false">D13*VLOOKUP(C13, product!$A$2:$C$9, 3)</f>
+        <v>210</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
@@ -1383,11 +1396,15 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <f aca="false">D14*VLOOKUP(C14, product!$A$2:$C$9, 3)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
@@ -1397,11 +1414,15 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <f aca="false">D15*VLOOKUP(C15, product!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
@@ -1413,9 +1434,13 @@
       <c r="D16" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F16" s="4" t="n">
+        <f aca="false">D16*VLOOKUP(C16, product!$A$2:$C$9, 3)</f>
+        <v>210</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
@@ -1425,11 +1450,15 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <f aca="false">D17*VLOOKUP(C17, product!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
@@ -1439,11 +1468,15 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <f aca="false">D18*VLOOKUP(C18, product!$A$2:$C$9, 3)</f>
+        <v>250</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
@@ -1455,9 +1488,13 @@
       <c r="D19" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F19" s="4" t="n">
+        <f aca="false">D19*VLOOKUP(C19, product!$A$2:$C$9, 3)</f>
+        <v>400</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
@@ -1467,11 +1504,15 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <f aca="false">D20*VLOOKUP(C20, product!$A$2:$C$9, 3)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
@@ -1481,11 +1522,15 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <f aca="false">D21*VLOOKUP(C21, product!$A$2:$C$9, 3)</f>
+        <v>420</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
@@ -1495,11 +1540,15 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <f aca="false">D22*VLOOKUP(C22, product!$A$2:$C$9, 3)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
@@ -1509,11 +1558,15 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <f aca="false">D23*VLOOKUP(C23, product!$A$2:$C$9, 3)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
@@ -1523,11 +1576,15 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <f aca="false">D24*VLOOKUP(C24, product!$A$2:$C$9, 3)</f>
+        <v>900</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
@@ -1537,11 +1594,15 @@
         <v>5</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <f aca="false">D25*VLOOKUP(C25, product!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
@@ -1551,11 +1612,15 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <f aca="false">D26*VLOOKUP(C26, product!$A$2:$C$9, 3)</f>
+        <v>210</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
@@ -1565,11 +1630,15 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <f aca="false">D27*VLOOKUP(C27, product!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
@@ -1579,11 +1648,15 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <f aca="false">D28*VLOOKUP(C28, product!$A$2:$C$9, 3)</f>
+        <v>350</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
@@ -1593,11 +1666,15 @@
         <v>4</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <f aca="false">D29*VLOOKUP(C29, product!$A$2:$C$9, 3)</f>
+        <v>160</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
@@ -1607,11 +1684,15 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <f aca="false">D30*VLOOKUP(C30, product!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
@@ -1621,11 +1702,15 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <f aca="false">D31*VLOOKUP(C31, product!$A$2:$C$9, 3)</f>
+        <v>320</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
@@ -1635,11 +1720,15 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <f aca="false">D32*VLOOKUP(C32, product!$A$2:$C$9, 3)</f>
+        <v>270</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
@@ -1649,11 +1738,15 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <f aca="false">D33*VLOOKUP(C33, product!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
@@ -1663,11 +1756,15 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <f aca="false">D34*VLOOKUP(C34, product!$A$2:$C$9, 3)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
@@ -1677,11 +1774,15 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <f aca="false">D35*VLOOKUP(C35, product!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
@@ -1691,11 +1792,15 @@
         <v>6</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <f aca="false">D36*VLOOKUP(C36, product!$A$2:$C$9, 3)</f>
+        <v>450</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
@@ -1705,11 +1810,15 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <f aca="false">D37*VLOOKUP(C37, product!$A$2:$C$9, 3)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
@@ -1719,11 +1828,15 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <f aca="false">D38*VLOOKUP(C38, product!$A$2:$C$9, 3)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
@@ -1733,11 +1846,15 @@
         <v>4</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <f aca="false">D39*VLOOKUP(C39, product!$A$2:$C$9, 3)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
@@ -1747,11 +1864,15 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <f aca="false">D40*VLOOKUP(C40, product!$A$2:$C$9, 3)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="n">
@@ -1761,11 +1882,15 @@
         <v>6</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <f aca="false">D41*VLOOKUP(C41, product!$A$2:$C$9, 3)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
@@ -1775,11 +1900,15 @@
         <v>7</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <f aca="false">D42*VLOOKUP(C42, product!$A$2:$C$9, 3)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
@@ -1789,11 +1918,15 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <f aca="false">D43*VLOOKUP(C43, product!$A$2:$C$9, 3)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
@@ -1803,11 +1936,15 @@
         <v>6</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <f aca="false">D44*VLOOKUP(C44, product!$A$2:$C$9, 3)</f>
+        <v>450</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
@@ -1817,11 +1954,15 @@
         <v>4</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <f aca="false">D45*VLOOKUP(C45, product!$A$2:$C$9, 3)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
@@ -1831,11 +1972,15 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <f aca="false">D46*VLOOKUP(C46, product!$A$2:$C$9, 3)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="n">
@@ -1845,11 +1990,15 @@
         <v>4</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <f aca="false">D47*VLOOKUP(C47, product!$A$2:$C$9, 3)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
@@ -1859,11 +2008,15 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <f aca="false">D48*VLOOKUP(C48, product!$A$2:$C$9, 3)</f>
+        <v>270</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="n">
@@ -1873,11 +2026,15 @@
         <v>6</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <f aca="false">D49*VLOOKUP(C49, product!$A$2:$C$9, 3)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
@@ -1887,11 +2044,15 @@
         <v>7</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <f aca="false">D50*VLOOKUP(C50, product!$A$2:$C$9, 3)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="n">
@@ -1901,11 +2062,15 @@
         <v>5</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <f aca="false">D51*VLOOKUP(C51, product!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="n">
@@ -1915,11 +2080,15 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <f aca="false">D52*VLOOKUP(C52, product!$A$2:$C$9, 3)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="n">
@@ -1929,11 +2098,15 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F53" s="4" t="n">
+        <f aca="false">D53*VLOOKUP(C53, product!$A$2:$C$9, 3)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="n">
@@ -1943,11 +2116,15 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F54" s="4" t="n">
+        <f aca="false">D54*VLOOKUP(C54, product!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="n">
@@ -1957,11 +2134,15 @@
         <v>4</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F55" s="4" t="n">
+        <f aca="false">D55*VLOOKUP(C55, product!$A$2:$C$9, 3)</f>
+        <v>320</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="n">
@@ -1971,11 +2152,15 @@
         <v>2</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <f aca="false">D56*VLOOKUP(C56, product!$A$2:$C$9, 3)</f>
+        <v>270</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="n">
@@ -1985,11 +2170,15 @@
         <v>6</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <f aca="false">D57*VLOOKUP(C57, product!$A$2:$C$9, 3)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
@@ -1999,11 +2188,15 @@
         <v>7</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <f aca="false">D58*VLOOKUP(C58, product!$A$2:$C$9, 3)</f>
+        <v>700</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="n">
@@ -2013,11 +2206,15 @@
         <v>5</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F59" s="4" t="n">
+        <f aca="false">D59*VLOOKUP(C59, product!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="n">
@@ -2027,11 +2224,15 @@
         <v>6</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <f aca="false">D60*VLOOKUP(C60, product!$A$2:$C$9, 3)</f>
+        <v>450</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="n">
@@ -2041,11 +2242,15 @@
         <v>8</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F61" s="4" t="n">
+        <f aca="false">D61*VLOOKUP(C61, product!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="n">
@@ -2055,11 +2260,15 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F62" s="4" t="n">
+        <f aca="false">D62*VLOOKUP(C62, product!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="n">
@@ -2069,11 +2278,15 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F63" s="4" t="n">
+        <f aca="false">D63*VLOOKUP(C63, product!$A$2:$C$9, 3)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="n">
@@ -2083,11 +2296,15 @@
         <v>2</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F64" s="4" t="n">
+        <f aca="false">D64*VLOOKUP(C64, product!$A$2:$C$9, 3)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="n">
@@ -2097,25 +2314,121 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F65" s="4" t="n">
+        <f aca="false">D65*VLOOKUP(C65, product!$A$2:$C$9, 3)</f>
+        <v>630</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4" t="n">
+        <f aca="false">D66*VLOOKUP(C66, product!$A$2:$C$9, 3)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4" t="n">
+        <f aca="false">D67*VLOOKUP(C67, product!$A$2:$C$9, 3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="0"/>
+      <c r="F68" s="4" t="n">
+        <f aca="false">D68*VLOOKUP(C68, product!$A$2:$C$9, 3)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" s="4" t="n">
+        <f aca="false">D69*VLOOKUP(C69, product!$A$2:$C$9, 3)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="C70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D66" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="0"/>
+      <c r="D70" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F70" s="4" t="n">
+        <f aca="false">D70*VLOOKUP(C70, product!$A$2:$C$9, 3)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" s="4" t="n">
+        <f aca="false">D71*VLOOKUP(C71, product!$A$2:$C$9, 3)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4" t="n">
+        <f aca="false">D72*VLOOKUP(C72, product!$A$2:$C$9, 3)</f>
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2133,17 +2446,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,13 +2465,13 @@
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>50</v>
@@ -2179,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>10</v>
@@ -2193,10 +2507,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>30</v>
@@ -2207,10 +2521,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>60</v>
@@ -2221,10 +2535,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>60</v>
@@ -2235,10 +2549,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>30</v>
@@ -2249,10 +2563,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>45</v>
@@ -2263,1006 +2577,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Comp230/sales_data.xlsx
+++ b/Comp230/sales_data.xlsx
@@ -11,10 +11,10 @@
     <sheet name="customers" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="invoices" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="invoice line items" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="product" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="products" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="Z_9470C7F5_6080_4CDC_8533_677DB9292658_.wvu.FilterData" vbProcedure="false">invoices!$B$1:$V$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="Z_9470C7F5_6080_4CDC_8533_677DB9292658_.wvu.FilterData" vbProcedure="false">invoices!$B$1:$V$55</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -335,12 +335,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -383,114 +383,123 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -510,10 +519,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -769,63 +778,47 @@
       <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>43568</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>131</v>
-      </c>
+      <c r="B22" s="3"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>43569</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>130</v>
-      </c>
+      <c r="B23" s="3"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>43570</v>
+        <v>43568</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>43570</v>
+        <v>43569</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>43571</v>
+        <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>134</v>
@@ -835,62 +828,62 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>43571</v>
+        <v>43570</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>43572</v>
+        <v>43571</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>43573</v>
+        <v>43571</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>43573</v>
+        <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>43574</v>
+        <v>43573</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>132</v>
@@ -900,49 +893,41 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>43574</v>
+        <v>43573</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>43575</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>125</v>
-      </c>
+      <c r="B33" s="3"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>43576</v>
+        <v>43574</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>43577</v>
+        <v>43574</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>128</v>
@@ -952,165 +937,224 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>43578</v>
+        <v>43575</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>43579</v>
+        <v>43576</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>43580</v>
+        <v>43577</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>43580</v>
+        <v>43578</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>43581</v>
+        <v>43579</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>43582</v>
+        <v>43580</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>43582</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>123</v>
-      </c>
+      <c r="B42" s="3"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>43582</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>133</v>
-      </c>
+      <c r="B43" s="3"/>
       <c r="D43" s="0"/>
       <c r="E43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>43583</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>124</v>
-      </c>
+      <c r="B44" s="3"/>
       <c r="D44" s="0"/>
       <c r="E44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>43585</v>
+        <v>43580</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>43585</v>
+        <v>43581</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>43585</v>
+        <v>43582</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D47" s="0"/>
       <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0"/>
+      <c r="A48" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>43582</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0"/>
+      <c r="A49" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>43582</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>43583</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>43585</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>43585</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>43585</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1128,12 +1172,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1175,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <f aca="false">D2*VLOOKUP(C2, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D2*VLOOKUP(C2, products!$A$2:$C$9, 3)</f>
         <v>50</v>
       </c>
     </row>
@@ -1193,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="n">
-        <f aca="false">D3*VLOOKUP(C3, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D3*VLOOKUP(C3, products!$A$2:$C$9, 3)</f>
         <v>180</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1214,885 +1258,744 @@
         <v>3</v>
       </c>
       <c r="F4" s="4" t="n">
-        <f aca="false">D4*VLOOKUP(C4, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D4*VLOOKUP(C4, products!$A$2:$C$9, 3)</f>
         <v>30</v>
       </c>
       <c r="H4" s="6" t="n">
-        <f aca="false">SUM(F2:F72)</f>
+        <f aca="false">SUM(F2:F81)</f>
         <v>15020</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <f aca="false">D5*VLOOKUP(C5, product!$A$2:$C$9, 3)</f>
-        <v>240</v>
-      </c>
-      <c r="H5" s="0"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="4" t="n">
-        <f aca="false">D6*VLOOKUP(C6, product!$A$2:$C$9, 3)</f>
-        <v>50</v>
-      </c>
+        <f aca="false">D6*VLOOKUP(C6, products!$A$2:$C$9, 3)</f>
+        <v>240</v>
+      </c>
+      <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>223</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4" t="n">
-        <f aca="false">D7*VLOOKUP(C7, product!$A$2:$C$9, 3)</f>
-        <v>560</v>
+        <f aca="false">D7*VLOOKUP(C7, products!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>223</v>
       </c>
       <c r="C8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="F8" s="4" t="n">
-        <f aca="false">D8*VLOOKUP(C8, product!$A$2:$C$9, 3)</f>
-        <v>20</v>
+        <f aca="false">D8*VLOOKUP(C8, products!$A$2:$C$9, 3)</f>
+        <v>560</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>223</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4" t="n">
-        <f aca="false">D9*VLOOKUP(C9, product!$A$2:$C$9, 3)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <f aca="false">D10*VLOOKUP(C10, product!$A$2:$C$9, 3)</f>
-        <v>700</v>
+        <f aca="false">D9*VLOOKUP(C9, products!$A$2:$C$9, 3)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="4" t="n">
-        <f aca="false">D11*VLOOKUP(C11, product!$A$2:$C$9, 3)</f>
-        <v>50</v>
+        <f aca="false">D11*VLOOKUP(C11, products!$A$2:$C$9, 3)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F12" s="4" t="n">
-        <f aca="false">D12*VLOOKUP(C12, product!$A$2:$C$9, 3)</f>
-        <v>120</v>
+        <f aca="false">D12*VLOOKUP(C12, products!$A$2:$C$9, 3)</f>
+        <v>700</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4" t="n">
-        <f aca="false">D13*VLOOKUP(C13, product!$A$2:$C$9, 3)</f>
-        <v>210</v>
+        <f aca="false">D13*VLOOKUP(C13, products!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="F14" s="4" t="n">
-        <f aca="false">D14*VLOOKUP(C14, product!$A$2:$C$9, 3)</f>
-        <v>200</v>
+        <f aca="false">D14*VLOOKUP(C14, products!$A$2:$C$9, 3)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4" t="n">
-        <f aca="false">D15*VLOOKUP(C15, product!$A$2:$C$9, 3)</f>
-        <v>60</v>
+        <f aca="false">D15*VLOOKUP(C15, products!$A$2:$C$9, 3)</f>
+        <v>210</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4" t="n">
-        <f aca="false">D16*VLOOKUP(C16, product!$A$2:$C$9, 3)</f>
-        <v>210</v>
+        <f aca="false">D16*VLOOKUP(C16, products!$A$2:$C$9, 3)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="4" t="n">
-        <f aca="false">D17*VLOOKUP(C17, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D17*VLOOKUP(C17, products!$A$2:$C$9, 3)</f>
         <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4" t="n">
-        <f aca="false">D18*VLOOKUP(C18, product!$A$2:$C$9, 3)</f>
-        <v>250</v>
+        <f aca="false">D18*VLOOKUP(C18, products!$A$2:$C$9, 3)</f>
+        <v>210</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="4" t="n">
-        <f aca="false">D19*VLOOKUP(C19, product!$A$2:$C$9, 3)</f>
-        <v>400</v>
+        <f aca="false">D19*VLOOKUP(C19, products!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" s="4" t="n">
-        <f aca="false">D20*VLOOKUP(C20, product!$A$2:$C$9, 3)</f>
-        <v>90</v>
+        <f aca="false">D20*VLOOKUP(C20, products!$A$2:$C$9, 3)</f>
+        <v>250</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="4" t="n">
-        <f aca="false">D21*VLOOKUP(C21, product!$A$2:$C$9, 3)</f>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F22" s="4" t="n">
-        <f aca="false">D22*VLOOKUP(C22, product!$A$2:$C$9, 3)</f>
-        <v>90</v>
+        <f aca="false">D21*VLOOKUP(C21, products!$A$2:$C$9, 3)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F23" s="4" t="n">
-        <f aca="false">D23*VLOOKUP(C23, product!$A$2:$C$9, 3)</f>
-        <v>100</v>
+        <f aca="false">D23*VLOOKUP(C23, products!$A$2:$C$9, 3)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F24" s="4" t="n">
-        <f aca="false">D24*VLOOKUP(C24, product!$A$2:$C$9, 3)</f>
-        <v>900</v>
+        <f aca="false">D24*VLOOKUP(C24, products!$A$2:$C$9, 3)</f>
+        <v>420</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F25" s="4" t="n">
-        <f aca="false">D25*VLOOKUP(C25, product!$A$2:$C$9, 3)</f>
-        <v>60</v>
+        <f aca="false">D25*VLOOKUP(C25, products!$A$2:$C$9, 3)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4" t="n">
-        <f aca="false">D26*VLOOKUP(C26, product!$A$2:$C$9, 3)</f>
-        <v>210</v>
+        <f aca="false">D26*VLOOKUP(C26, products!$A$2:$C$9, 3)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" s="4" t="n">
-        <f aca="false">D27*VLOOKUP(C27, product!$A$2:$C$9, 3)</f>
-        <v>60</v>
+        <f aca="false">D27*VLOOKUP(C27, products!$A$2:$C$9, 3)</f>
+        <v>900</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" s="4" t="n">
-        <f aca="false">D28*VLOOKUP(C28, product!$A$2:$C$9, 3)</f>
-        <v>350</v>
+        <f aca="false">D28*VLOOKUP(C28, products!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="4" t="n">
-        <f aca="false">D29*VLOOKUP(C29, product!$A$2:$C$9, 3)</f>
-        <v>160</v>
+        <f aca="false">D29*VLOOKUP(C29, products!$A$2:$C$9, 3)</f>
+        <v>210</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="4" t="n">
-        <f aca="false">D30*VLOOKUP(C30, product!$A$2:$C$9, 3)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="F31" s="4" t="n">
-        <f aca="false">D31*VLOOKUP(C31, product!$A$2:$C$9, 3)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F32" s="4" t="n">
-        <f aca="false">D32*VLOOKUP(C32, product!$A$2:$C$9, 3)</f>
-        <v>270</v>
+        <f aca="false">D30*VLOOKUP(C30, products!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33" s="4" t="n">
-        <f aca="false">D33*VLOOKUP(C33, product!$A$2:$C$9, 3)</f>
-        <v>60</v>
+        <f aca="false">D33*VLOOKUP(C33, products!$A$2:$C$9, 3)</f>
+        <v>350</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" s="4" t="n">
-        <f aca="false">D34*VLOOKUP(C34, product!$A$2:$C$9, 3)</f>
-        <v>100</v>
+        <f aca="false">D34*VLOOKUP(C34, products!$A$2:$C$9, 3)</f>
+        <v>160</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F35" s="4" t="n">
-        <f aca="false">D35*VLOOKUP(C35, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D35*VLOOKUP(C35, products!$A$2:$C$9, 3)</f>
         <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="4" t="n">
-        <f aca="false">D36*VLOOKUP(C36, product!$A$2:$C$9, 3)</f>
-        <v>450</v>
+        <f aca="false">D36*VLOOKUP(C36, products!$A$2:$C$9, 3)</f>
+        <v>320</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37" s="4" t="n">
-        <f aca="false">D37*VLOOKUP(C37, product!$A$2:$C$9, 3)</f>
-        <v>240</v>
+        <f aca="false">D37*VLOOKUP(C37, products!$A$2:$C$9, 3)</f>
+        <v>270</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F38" s="4" t="n">
-        <f aca="false">D38*VLOOKUP(C38, product!$A$2:$C$9, 3)</f>
-        <v>20</v>
+        <f aca="false">D38*VLOOKUP(C38, products!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
-        <f aca="false">D39*VLOOKUP(C39, product!$A$2:$C$9, 3)</f>
-        <v>200</v>
+        <f aca="false">D39*VLOOKUP(C39, products!$A$2:$C$9, 3)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F40" s="4" t="n">
-        <f aca="false">D40*VLOOKUP(C40, product!$A$2:$C$9, 3)</f>
-        <v>150</v>
+        <f aca="false">D40*VLOOKUP(C40, products!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F41" s="4" t="n">
-        <f aca="false">D41*VLOOKUP(C41, product!$A$2:$C$9, 3)</f>
-        <v>300</v>
+        <f aca="false">D41*VLOOKUP(C41, products!$A$2:$C$9, 3)</f>
+        <v>450</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42" s="4" t="n">
-        <f aca="false">D42*VLOOKUP(C42, product!$A$2:$C$9, 3)</f>
-        <v>500</v>
+        <f aca="false">D42*VLOOKUP(C42, products!$A$2:$C$9, 3)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F43" s="4" t="n">
-        <f aca="false">D43*VLOOKUP(C43, product!$A$2:$C$9, 3)</f>
-        <v>80</v>
+        <f aca="false">D43*VLOOKUP(C43, products!$A$2:$C$9, 3)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F44" s="4" t="n">
-        <f aca="false">D44*VLOOKUP(C44, product!$A$2:$C$9, 3)</f>
-        <v>450</v>
+        <f aca="false">D44*VLOOKUP(C44, products!$A$2:$C$9, 3)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" s="4" t="n">
-        <f aca="false">D45*VLOOKUP(C45, product!$A$2:$C$9, 3)</f>
-        <v>240</v>
+        <f aca="false">D45*VLOOKUP(C45, products!$A$2:$C$9, 3)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" s="4" t="n">
-        <f aca="false">D46*VLOOKUP(C46, product!$A$2:$C$9, 3)</f>
-        <v>70</v>
+        <f aca="false">D46*VLOOKUP(C46, products!$A$2:$C$9, 3)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F47" s="4" t="n">
-        <f aca="false">D47*VLOOKUP(C47, product!$A$2:$C$9, 3)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F48" s="4" t="n">
-        <f aca="false">D48*VLOOKUP(C48, product!$A$2:$C$9, 3)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F49" s="4" t="n">
-        <f aca="false">D49*VLOOKUP(C49, product!$A$2:$C$9, 3)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F50" s="4" t="n">
-        <f aca="false">D50*VLOOKUP(C50, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D47*VLOOKUP(C47, products!$A$2:$C$9, 3)</f>
         <v>500</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51" s="4" t="n">
-        <f aca="false">D51*VLOOKUP(C51, product!$A$2:$C$9, 3)</f>
-        <v>60</v>
+        <f aca="false">D51*VLOOKUP(C51, products!$A$2:$C$9, 3)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F52" s="4" t="n">
-        <f aca="false">D52*VLOOKUP(C52, product!$A$2:$C$9, 3)</f>
-        <v>70</v>
+        <f aca="false">D52*VLOOKUP(C52, products!$A$2:$C$9, 3)</f>
+        <v>450</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>4</v>
@@ -2101,52 +2004,52 @@
         <v>6</v>
       </c>
       <c r="F53" s="4" t="n">
-        <f aca="false">D53*VLOOKUP(C53, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D53*VLOOKUP(C53, products!$A$2:$C$9, 3)</f>
         <v>240</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F54" s="4" t="n">
-        <f aca="false">D54*VLOOKUP(C54, product!$A$2:$C$9, 3)</f>
-        <v>50</v>
+        <f aca="false">D54*VLOOKUP(C54, products!$A$2:$C$9, 3)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F55" s="4" t="n">
-        <f aca="false">D55*VLOOKUP(C55, product!$A$2:$C$9, 3)</f>
-        <v>320</v>
+        <f aca="false">D55*VLOOKUP(C55, products!$A$2:$C$9, 3)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>2</v>
@@ -2155,16 +2058,16 @@
         <v>9</v>
       </c>
       <c r="F56" s="4" t="n">
-        <f aca="false">D56*VLOOKUP(C56, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D56*VLOOKUP(C56, products!$A$2:$C$9, 3)</f>
         <v>270</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>6</v>
@@ -2173,88 +2076,88 @@
         <v>6</v>
       </c>
       <c r="F57" s="4" t="n">
-        <f aca="false">D57*VLOOKUP(C57, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D57*VLOOKUP(C57, products!$A$2:$C$9, 3)</f>
         <v>300</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>7</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F58" s="4" t="n">
-        <f aca="false">D58*VLOOKUP(C58, product!$A$2:$C$9, 3)</f>
-        <v>700</v>
+        <f aca="false">D58*VLOOKUP(C58, products!$A$2:$C$9, 3)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F59" s="4" t="n">
-        <f aca="false">D59*VLOOKUP(C59, product!$A$2:$C$9, 3)</f>
-        <v>50</v>
+        <f aca="false">D59*VLOOKUP(C59, products!$A$2:$C$9, 3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F60" s="4" t="n">
-        <f aca="false">D60*VLOOKUP(C60, product!$A$2:$C$9, 3)</f>
-        <v>450</v>
+        <f aca="false">D60*VLOOKUP(C60, products!$A$2:$C$9, 3)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F61" s="4" t="n">
-        <f aca="false">D61*VLOOKUP(C61, product!$A$2:$C$9, 3)</f>
-        <v>60</v>
+        <f aca="false">D61*VLOOKUP(C61, products!$A$2:$C$9, 3)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>1</v>
@@ -2263,170 +2166,332 @@
         <v>5</v>
       </c>
       <c r="F62" s="4" t="n">
-        <f aca="false">D62*VLOOKUP(C62, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D62*VLOOKUP(C62, products!$A$2:$C$9, 3)</f>
         <v>50</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F63" s="4" t="n">
-        <f aca="false">D63*VLOOKUP(C63, product!$A$2:$C$9, 3)</f>
-        <v>240</v>
+        <f aca="false">D63*VLOOKUP(C63, products!$A$2:$C$9, 3)</f>
+        <v>320</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F64" s="4" t="n">
-        <f aca="false">D64*VLOOKUP(C64, product!$A$2:$C$9, 3)</f>
-        <v>150</v>
+        <f aca="false">D64*VLOOKUP(C64, products!$A$2:$C$9, 3)</f>
+        <v>270</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F65" s="4" t="n">
-        <f aca="false">D65*VLOOKUP(C65, product!$A$2:$C$9, 3)</f>
-        <v>630</v>
+        <f aca="false">D65*VLOOKUP(C65, products!$A$2:$C$9, 3)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F66" s="4" t="n">
-        <f aca="false">D66*VLOOKUP(C66, product!$A$2:$C$9, 3)</f>
-        <v>80</v>
+        <f aca="false">D66*VLOOKUP(C66, products!$A$2:$C$9, 3)</f>
+        <v>700</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>58</v>
+      </c>
       <c r="B67" s="1" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F67" s="4" t="n">
-        <f aca="false">D67*VLOOKUP(C67, product!$A$2:$C$9, 3)</f>
-        <v>10</v>
+        <f aca="false">D67*VLOOKUP(C67, products!$A$2:$C$9, 3)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>59</v>
+      </c>
       <c r="B68" s="1" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E68" s="0"/>
+        <v>9</v>
+      </c>
       <c r="F68" s="4" t="n">
-        <f aca="false">D68*VLOOKUP(C68, product!$A$2:$C$9, 3)</f>
-        <v>200</v>
+        <f aca="false">D68*VLOOKUP(C68, products!$A$2:$C$9, 3)</f>
+        <v>450</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>60</v>
+      </c>
       <c r="B69" s="1" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F69" s="4" t="n">
-        <f aca="false">D69*VLOOKUP(C69, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D69*VLOOKUP(C69, products!$A$2:$C$9, 3)</f>
         <v>60</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>61</v>
+      </c>
       <c r="B70" s="1" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" s="4" t="n">
-        <f aca="false">D70*VLOOKUP(C70, product!$A$2:$C$9, 3)</f>
+        <f aca="false">D70*VLOOKUP(C70, products!$A$2:$C$9, 3)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" s="4" t="n">
+        <f aca="false">D71*VLOOKUP(C71, products!$A$2:$C$9, 3)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" s="4" t="n">
+        <f aca="false">D72*VLOOKUP(C72, products!$A$2:$C$9, 3)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F73" s="4" t="n">
+        <f aca="false">D73*VLOOKUP(C73, products!$A$2:$C$9, 3)</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" s="4" t="n">
+        <f aca="false">D75*VLOOKUP(C75, products!$A$2:$C$9, 3)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4" t="n">
+        <f aca="false">D76*VLOOKUP(C76, products!$A$2:$C$9, 3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" s="0"/>
+      <c r="F77" s="4" t="n">
+        <f aca="false">D77*VLOOKUP(C77, products!$A$2:$C$9, 3)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" s="4" t="n">
+        <f aca="false">D78*VLOOKUP(C78, products!$A$2:$C$9, 3)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="1" t="n">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B79" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="C79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F79" s="4" t="n">
+        <f aca="false">D79*VLOOKUP(C79, products!$A$2:$C$9, 3)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="C80" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D71" s="1" t="n">
+      <c r="D80" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F71" s="4" t="n">
-        <f aca="false">D71*VLOOKUP(C71, product!$A$2:$C$9, 3)</f>
+      <c r="F80" s="4" t="n">
+        <f aca="false">D80*VLOOKUP(C80, products!$A$2:$C$9, 3)</f>
         <v>140</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="1" t="n">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B81" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D72" s="1" t="n">
+      <c r="C81" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F72" s="4" t="n">
-        <f aca="false">D72*VLOOKUP(C72, product!$A$2:$C$9, 3)</f>
+      <c r="F81" s="4" t="n">
+        <f aca="false">D81*VLOOKUP(C81, products!$A$2:$C$9, 3)</f>
         <v>30</v>
       </c>
     </row>

--- a/Comp230/sales_data.xlsx
+++ b/Comp230/sales_data.xlsx
@@ -62,7 +62,27 @@
     <t xml:space="preserve">'invoice line items’ sheet must have the following format:</t>
   </si>
   <si>
-    <t xml:space="preserve">line item ID</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">line item ID </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(unused, but included for the sake of consistency: each sheet has a primary/ID key...)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">product ID</t>
@@ -80,7 +100,27 @@
     <t xml:space="preserve">Column 6</t>
   </si>
   <si>
-    <t xml:space="preserve">line total (units sold * price/unit)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">line total </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(used in python validation script, calculated in sheet: units sold * price/unit)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">'products’ sheet must have the following format:</t>

--- a/Comp230/sales_data.xlsx
+++ b/Comp230/sales_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" state="visible" r:id="rId2"/>
@@ -540,7 +540,7 @@
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1585,9 +1585,9 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F73" activeCellId="0" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2923,10 +2923,10 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Comp230/sales_data.xlsx
+++ b/Comp230/sales_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" state="visible" r:id="rId2"/>
@@ -747,7 +747,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -934,7 +934,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1585,9 +1585,9 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F73" activeCellId="0" sqref="F73"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2923,10 +2923,10 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Comp230/sales_data.xlsx
+++ b/Comp230/sales_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t xml:space="preserve">'customers’ sheet must have the following format:</t>
   </si>
@@ -285,42 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve">line total</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Total of </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">all</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> invoices</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -390,7 +354,7 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -406,14 +370,13 @@
     </font>
     <font>
       <i val="true"/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -422,15 +385,14 @@
     </font>
     <font>
       <i val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -501,7 +463,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,11 +475,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,11 +502,11 @@
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
@@ -554,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -562,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -570,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -583,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -591,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -599,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -612,15 +574,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -628,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -636,7 +598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -644,16 +606,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -662,7 +624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
@@ -678,7 +640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -686,7 +648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
@@ -694,36 +656,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
         <v>27</v>
@@ -745,21 +707,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -770,7 +732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>123</v>
       </c>
@@ -781,7 +743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>124</v>
       </c>
@@ -792,10 +754,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>125</v>
       </c>
@@ -806,7 +768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>126</v>
       </c>
@@ -817,10 +779,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>127</v>
       </c>
@@ -831,7 +793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>128</v>
       </c>
@@ -841,10 +803,8 @@
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>129</v>
       </c>
@@ -855,7 +815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>130</v>
       </c>
@@ -866,10 +826,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>131</v>
       </c>
@@ -880,7 +840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>132</v>
       </c>
@@ -891,7 +851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>133</v>
       </c>
@@ -902,7 +862,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>134</v>
       </c>
@@ -929,22 +889,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1020" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -955,7 +914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>222</v>
       </c>
@@ -966,7 +925,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>223</v>
       </c>
@@ -977,7 +936,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>224</v>
       </c>
@@ -988,7 +947,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>225</v>
       </c>
@@ -999,7 +958,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>226</v>
       </c>
@@ -1010,7 +969,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>227</v>
       </c>
@@ -1021,7 +980,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>228</v>
       </c>
@@ -1032,7 +991,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>229</v>
       </c>
@@ -1043,7 +1002,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>230</v>
       </c>
@@ -1054,7 +1013,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>231</v>
       </c>
@@ -1065,7 +1024,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>232</v>
       </c>
@@ -1076,7 +1035,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>233</v>
       </c>
@@ -1087,7 +1046,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>234</v>
       </c>
@@ -1098,7 +1057,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>235</v>
       </c>
@@ -1109,7 +1068,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>236</v>
       </c>
@@ -1119,10 +1078,8 @@
       <c r="C16" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>237</v>
       </c>
@@ -1132,10 +1089,8 @@
       <c r="C17" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>238</v>
       </c>
@@ -1145,10 +1100,8 @@
       <c r="C18" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>239</v>
       </c>
@@ -1158,10 +1111,8 @@
       <c r="C19" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>240</v>
       </c>
@@ -1171,10 +1122,8 @@
       <c r="C20" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>241</v>
       </c>
@@ -1184,20 +1133,14 @@
       <c r="C21" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>242</v>
       </c>
@@ -1207,10 +1150,8 @@
       <c r="C24" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>243</v>
       </c>
@@ -1220,10 +1161,8 @@
       <c r="C25" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>244</v>
       </c>
@@ -1233,10 +1172,8 @@
       <c r="C26" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>245</v>
       </c>
@@ -1246,10 +1183,8 @@
       <c r="C27" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>246</v>
       </c>
@@ -1259,10 +1194,8 @@
       <c r="C28" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>247</v>
       </c>
@@ -1272,10 +1205,8 @@
       <c r="C29" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>248</v>
       </c>
@@ -1285,10 +1216,8 @@
       <c r="C30" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>249</v>
       </c>
@@ -1298,10 +1227,8 @@
       <c r="C31" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>250</v>
       </c>
@@ -1311,15 +1238,11 @@
       <c r="C32" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="7"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>251</v>
       </c>
@@ -1329,10 +1252,8 @@
       <c r="C34" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>252</v>
       </c>
@@ -1342,10 +1263,8 @@
       <c r="C35" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>253</v>
       </c>
@@ -1355,10 +1274,8 @@
       <c r="C36" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>254</v>
       </c>
@@ -1368,10 +1285,8 @@
       <c r="C37" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>255</v>
       </c>
@@ -1381,10 +1296,8 @@
       <c r="C38" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>256</v>
       </c>
@@ -1394,10 +1307,8 @@
       <c r="C39" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>257</v>
       </c>
@@ -1407,10 +1318,8 @@
       <c r="C40" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>258</v>
       </c>
@@ -1420,25 +1329,17 @@
       <c r="C41" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="7"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="7"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>259</v>
       </c>
@@ -1448,10 +1349,8 @@
       <c r="C45" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>260</v>
       </c>
@@ -1461,10 +1360,8 @@
       <c r="C46" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>261</v>
       </c>
@@ -1474,10 +1371,8 @@
       <c r="C47" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>262</v>
       </c>
@@ -1487,10 +1382,8 @@
       <c r="C48" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>263</v>
       </c>
@@ -1500,10 +1393,8 @@
       <c r="C49" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>264</v>
       </c>
@@ -1513,15 +1404,11 @@
       <c r="C50" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="7"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>265</v>
       </c>
@@ -1531,10 +1418,8 @@
       <c r="C52" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>266</v>
       </c>
@@ -1544,10 +1429,8 @@
       <c r="C53" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>267</v>
       </c>
@@ -1557,14 +1440,6 @@
       <c r="C54" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1584,21 +1459,20 @@
   </sheetPr>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="7" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1615,7 +1489,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1633,7 +1507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -1650,11 +1524,9 @@
         <f aca="false">D3*VLOOKUP(C3, products!$A$2:$C$9, 3)</f>
         <v>180</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -1671,15 +1543,12 @@
         <f aca="false">D4*VLOOKUP(C4, products!$A$2:$C$9, 3)</f>
         <v>30</v>
       </c>
-      <c r="H4" s="9" t="n">
-        <f aca="false">SUM(F2:F81)</f>
-        <v>15020</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -1696,9 +1565,8 @@
         <f aca="false">D6*VLOOKUP(C6, products!$A$2:$C$9, 3)</f>
         <v>240</v>
       </c>
-      <c r="H6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -1716,7 +1584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -1734,7 +1602,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1752,7 +1620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
@@ -1770,7 +1638,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
@@ -1788,7 +1656,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
@@ -1806,7 +1674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
@@ -1824,7 +1692,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
@@ -1842,7 +1710,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
@@ -1860,7 +1728,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
@@ -1878,7 +1746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
@@ -1896,7 +1764,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
@@ -1914,7 +1782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
@@ -1932,7 +1800,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
@@ -1950,7 +1818,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>19</v>
       </c>
@@ -1968,7 +1836,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>20</v>
       </c>
@@ -1986,7 +1854,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>21</v>
       </c>
@@ -2004,7 +1872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>22</v>
       </c>
@@ -2022,7 +1890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>23</v>
       </c>
@@ -2040,7 +1908,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>24</v>
       </c>
@@ -2058,7 +1926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>25</v>
       </c>
@@ -2076,7 +1944,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>26</v>
       </c>
@@ -2094,7 +1962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>27</v>
       </c>
@@ -2112,7 +1980,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>28</v>
       </c>
@@ -2130,7 +1998,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>29</v>
       </c>
@@ -2148,7 +2016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>30</v>
       </c>
@@ -2166,7 +2034,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>31</v>
       </c>
@@ -2184,7 +2052,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>32</v>
       </c>
@@ -2202,7 +2070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>33</v>
       </c>
@@ -2220,7 +2088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>34</v>
       </c>
@@ -2238,7 +2106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>35</v>
       </c>
@@ -2256,7 +2124,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>36</v>
       </c>
@@ -2274,7 +2142,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>37</v>
       </c>
@@ -2292,7 +2160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>38</v>
       </c>
@@ -2310,7 +2178,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>39</v>
       </c>
@@ -2328,7 +2196,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>40</v>
       </c>
@@ -2346,7 +2214,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>41</v>
       </c>
@@ -2364,7 +2232,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>42</v>
       </c>
@@ -2382,7 +2250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>43</v>
       </c>
@@ -2400,7 +2268,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>44</v>
       </c>
@@ -2418,7 +2286,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>45</v>
       </c>
@@ -2436,7 +2304,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>46</v>
       </c>
@@ -2454,7 +2322,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>47</v>
       </c>
@@ -2472,7 +2340,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>48</v>
       </c>
@@ -2490,7 +2358,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>49</v>
       </c>
@@ -2508,7 +2376,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>50</v>
       </c>
@@ -2526,7 +2394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>51</v>
       </c>
@@ -2544,7 +2412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>52</v>
       </c>
@@ -2562,7 +2430,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>53</v>
       </c>
@@ -2580,7 +2448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>54</v>
       </c>
@@ -2598,7 +2466,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>55</v>
       </c>
@@ -2616,7 +2484,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>56</v>
       </c>
@@ -2634,7 +2502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>57</v>
       </c>
@@ -2652,7 +2520,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>58</v>
       </c>
@@ -2670,7 +2538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>59</v>
       </c>
@@ -2688,7 +2556,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>60</v>
       </c>
@@ -2706,7 +2574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>61</v>
       </c>
@@ -2724,7 +2592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>62</v>
       </c>
@@ -2742,7 +2610,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>63</v>
       </c>
@@ -2760,7 +2628,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>64</v>
       </c>
@@ -2778,7 +2646,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>65</v>
       </c>
@@ -2796,7 +2664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>66</v>
       </c>
@@ -2814,7 +2682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>67</v>
       </c>
@@ -2827,13 +2695,12 @@
       <c r="D77" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E77" s="0"/>
       <c r="F77" s="8" t="n">
         <f aca="false">D77*VLOOKUP(C77, products!$A$2:$C$9, 3)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>68</v>
       </c>
@@ -2851,7 +2718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>69</v>
       </c>
@@ -2869,7 +2736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>70</v>
       </c>
@@ -2887,7 +2754,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>71</v>
       </c>
@@ -2923,38 +2790,38 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>10</v>
@@ -2963,12 +2830,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>30</v>
@@ -2977,12 +2844,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>70</v>
@@ -2991,12 +2858,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>40</v>
@@ -3005,12 +2872,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>10</v>
@@ -3019,12 +2886,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>50</v>
@@ -3033,12 +2900,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>100</v>
@@ -3047,12 +2914,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>10</v>
